--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671512.007673127</v>
+        <v>2665667.872667999</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256419</v>
+        <v>6239134.533256418</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9312802.731792154</v>
+        <v>9312802.731792152</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>134.4518684629374</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>50.36218625475002</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>170.9650410766762</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>241.9672255833425</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>155.4526127311944</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>184.2720459863179</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>14.01032806733598</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>113.7791407974871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>83.59830597394837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803228</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>30.27747736723002</v>
+        <v>149.1360835149453</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>126.6529982527928</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>96.00459428522197</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0203559212045</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
         <v>295.6178616169271</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.4303704821489</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>226.4311581865593</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.9500376040615</v>
+        <v>28.81869974802302</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>90.34141855353774</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>133.0346749731761</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V28" t="n">
-        <v>25.11488308230486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>6.244975030660228</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>97.68290229956054</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>172.7777239268855</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
@@ -3246,16 +3246,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.62405120786525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.4325822200137</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>30.04881790251212</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G38" t="n">
         <v>411.0203559212046</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0593988175878</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>123.8740939046655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>38.96777076873713</v>
       </c>
       <c r="G43" t="n">
-        <v>72.51042800248936</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>119.7401400319056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4191,19 +4191,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>246.958344133823</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>189.7529499647457</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2591.249506341897</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2372.61483931396</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2372.61483931396</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2372.61483931396</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2372.61483931396</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2372.61483931396</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.475507338148</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2348.279642648881</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="V5" t="n">
-        <v>2397.709062575643</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="W5" t="n">
-        <v>2397.709062575643</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>2024.243304314563</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.243304314563</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.99724448556</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.99724448556</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.99724448556</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.99724448556</v>
       </c>
       <c r="V8" t="n">
-        <v>2527.191976500749</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="W8" t="n">
-        <v>2527.191976500749</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X8" t="n">
-        <v>2153.726218239669</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1763.586886263858</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>138.385715127383</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587813</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.385715127383</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
         <v>440.1593205155743</v>
@@ -5038,52 +5038,52 @@
         <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L11" t="n">
-        <v>1611.438070502394</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M11" t="n">
-        <v>2127.824549292078</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4109.950544869123</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R11" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S11" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666527</v>
       </c>
       <c r="T11" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U11" t="n">
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5105,19 +5105,19 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I12" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J12" t="n">
         <v>258.3150913629237</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.2749519650746</v>
+        <v>877.3210582940426</v>
       </c>
       <c r="C13" t="n">
-        <v>539.3387690371677</v>
+        <v>708.3848753661357</v>
       </c>
       <c r="D13" t="n">
-        <v>389.222129624832</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="E13" t="n">
-        <v>389.222129624832</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F13" t="n">
-        <v>242.3321821269216</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G13" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="I13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J13" t="n">
         <v>137.7436613720289</v>
@@ -5205,10 +5205,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M13" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239501</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5232,19 +5232,19 @@
         <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1623.973345514698</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V13" t="n">
-        <v>1369.288857308811</v>
+        <v>1658.394161766784</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.705546836862</v>
+        <v>1507.75165316583</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.715995938844</v>
+        <v>1279.762102267812</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.9234167953143</v>
+        <v>1058.969523124282</v>
       </c>
     </row>
     <row r="14">
@@ -5263,13 +5263,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5278,28 +5278,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1446.817951496196</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>2408.222828443784</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N14" t="n">
-        <v>3370.552243872425</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O14" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5357,22 +5357,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>767.2392694577319</v>
+        <v>676.2656629611541</v>
       </c>
       <c r="C16" t="n">
-        <v>767.2392694577319</v>
+        <v>507.3294800332473</v>
       </c>
       <c r="D16" t="n">
-        <v>617.1226300453961</v>
+        <v>507.3294800332473</v>
       </c>
       <c r="E16" t="n">
-        <v>469.209536463003</v>
+        <v>507.3294800332473</v>
       </c>
       <c r="F16" t="n">
-        <v>322.3195889650926</v>
+        <v>360.4395325353369</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3195889650926</v>
+        <v>192.6920068770811</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>192.6920068770811</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T16" t="n">
-        <v>1821.238811302083</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U16" t="n">
-        <v>1532.13350684411</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V16" t="n">
-        <v>1277.449018638223</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W16" t="n">
-        <v>988.031848601262</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X16" t="n">
-        <v>988.031848601262</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="Y16" t="n">
-        <v>767.2392694577319</v>
+        <v>857.9141277913939</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155743</v>
@@ -5515,16 +5515,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935955</v>
+        <v>280.8839136038023</v>
       </c>
       <c r="K17" t="n">
-        <v>911.1416242268231</v>
+        <v>923.1865672168631</v>
       </c>
       <c r="L17" t="n">
-        <v>1760.251489861816</v>
+        <v>1772.296432851856</v>
       </c>
       <c r="M17" t="n">
-        <v>2721.656366809404</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N17" t="n">
         <v>3251.01232707018</v>
@@ -5594,22 +5594,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P18" t="n">
         <v>2436.525948037006</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>974.6920759057148</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>805.7558929778079</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5706,19 +5706,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.656398353473</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.656398353473</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.656398353473</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.666847455456</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>1049.874268311926</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5755,22 +5755,22 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K20" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.223600516549</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M20" t="n">
-        <v>2575.628477464137</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N20" t="n">
-        <v>3537.957892892778</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O20" t="n">
-        <v>4024.47845415181</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.211496276439</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
         <v>4667.940766252041</v>
@@ -5831,25 +5831,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P21" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>975.990656576427</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
-        <v>807.0544736485201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D22" t="n">
-        <v>656.9378342361844</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>509.0247406537912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
         <v>95.71766921524075</v>
@@ -5937,25 +5937,25 @@
         <v>1821.238811302083</v>
       </c>
       <c r="S22" t="n">
-        <v>1821.238811302083</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1599.281251821626</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U22" t="n">
-        <v>1599.281251821626</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>1599.281251821626</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W22" t="n">
-        <v>1309.864081784666</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X22" t="n">
-        <v>1309.864081784666</v>
+        <v>345.6200460840466</v>
       </c>
       <c r="Y22" t="n">
-        <v>1089.071502641136</v>
+        <v>124.8274669405165</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K23" t="n">
-        <v>993.3938544864641</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L23" t="n">
-        <v>1429.019117716511</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2390.423994664099</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>3352.75341009274</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O23" t="n">
-        <v>3839.273971351772</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="24">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.4494356526525</v>
+        <v>453.3887512907675</v>
       </c>
       <c r="C25" t="n">
-        <v>496.5132527247456</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="D25" t="n">
-        <v>496.5132527247456</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="E25" t="n">
         <v>362.1347931558809</v>
@@ -6171,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.5510938955</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V25" t="n">
-        <v>954.866605689613</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W25" t="n">
-        <v>665.4494356526525</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="X25" t="n">
-        <v>665.4494356526525</v>
+        <v>635.0372161210072</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.4494356526525</v>
+        <v>635.0372161210072</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G26" t="n">
         <v>440.1593205155743</v>
@@ -6226,25 +6226,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K26" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1767.721909941649</v>
+        <v>1676.497326176646</v>
       </c>
       <c r="M26" t="n">
-        <v>2729.126786889237</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N26" t="n">
-        <v>3628.004506520298</v>
+        <v>2722.239765227106</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3585.752505936256</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q26" t="n">
         <v>4733.000021926293</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>876.0224776233304</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>707.0862946954235</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>556.9696552830877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>556.9696552830877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6408,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1821.238811302083</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T28" t="n">
-        <v>1821.238811302083</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U28" t="n">
-        <v>1821.238811302083</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>1795.870242532078</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>1506.453072495117</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>1278.4635215971</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>1057.67094245357</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6466,16 +6466,16 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K29" t="n">
-        <v>855.1603485090766</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L29" t="n">
-        <v>1704.27021414407</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M29" t="n">
-        <v>2665.675091091658</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N29" t="n">
-        <v>3628.004506520298</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O29" t="n">
         <v>4114.52506777933</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P30" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R30" t="n">
         <v>2587.498588679581</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>954.8576438298521</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="C31" t="n">
-        <v>785.9214609019452</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="D31" t="n">
-        <v>635.8048214896095</v>
+        <v>515.3327962403167</v>
       </c>
       <c r="E31" t="n">
-        <v>487.8917279072164</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="F31" t="n">
-        <v>341.001780409306</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H31" t="n">
         <v>194.3872674976251</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1821.238811302083</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.715857840582</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.715857840582</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V31" t="n">
-        <v>1646.715857840582</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W31" t="n">
-        <v>1357.298687803622</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X31" t="n">
-        <v>1357.298687803622</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="Y31" t="n">
-        <v>1136.506108660092</v>
+        <v>665.4494356526525</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6700,25 +6700,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K32" t="n">
-        <v>765.1137348815562</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.223600516549</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M32" t="n">
-        <v>2575.628477464137</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N32" t="n">
-        <v>3537.957892892778</v>
+        <v>2813.464348992109</v>
       </c>
       <c r="O32" t="n">
-        <v>4114.52506777933</v>
+        <v>3585.752505936256</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q32" t="n">
         <v>4733.000021926293</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>656.9378342361844</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C34" t="n">
-        <v>656.9378342361844</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9378342361844</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E34" t="n">
-        <v>509.0247406537912</v>
+        <v>216.667305611105</v>
       </c>
       <c r="F34" t="n">
-        <v>362.1347931558809</v>
+        <v>216.667305611105</v>
       </c>
       <c r="G34" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T34" t="n">
-        <v>1406.816559682885</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U34" t="n">
-        <v>1117.711255224911</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V34" t="n">
-        <v>1117.711255224911</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W34" t="n">
-        <v>1117.711255224911</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X34" t="n">
-        <v>889.721704326894</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y34" t="n">
-        <v>838.5862990664241</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443784</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872425</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -6970,19 +6970,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V35" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="36">
@@ -7034,7 +7034,7 @@
         <v>2062.14661647041</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.76541105839</v>
+        <v>709.2980980495573</v>
       </c>
       <c r="C37" t="n">
-        <v>3406.829228130483</v>
+        <v>540.3619151216504</v>
       </c>
       <c r="D37" t="n">
-        <v>3406.829228130483</v>
+        <v>390.2452757093147</v>
       </c>
       <c r="E37" t="n">
-        <v>3283.159953160773</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="F37" t="n">
-        <v>3136.270005662862</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G37" t="n">
-        <v>2968.522480004607</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K37" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L37" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M37" t="n">
-        <v>3856.786138513316</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N37" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O37" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q37" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>4785.883460762037</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T37" t="n">
-        <v>4563.925901281581</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="U37" t="n">
-        <v>4274.820596823608</v>
+        <v>1431.508653375957</v>
       </c>
       <c r="V37" t="n">
-        <v>4274.820596823608</v>
+        <v>1431.508653375957</v>
       </c>
       <c r="W37" t="n">
-        <v>3985.403426786647</v>
+        <v>1142.091483338996</v>
       </c>
       <c r="X37" t="n">
-        <v>3757.41387588863</v>
+        <v>1111.739142023327</v>
       </c>
       <c r="Y37" t="n">
-        <v>3757.41387588863</v>
+        <v>890.9465628797971</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7183,13 +7183,13 @@
         <v>1767.721909941649</v>
       </c>
       <c r="M38" t="n">
-        <v>2665.675091091658</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N38" t="n">
-        <v>3628.004506520298</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>4109.950544869123</v>
       </c>
       <c r="P38" t="n">
         <v>4495.258109903959</v>
@@ -7268,10 +7268,10 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3582.378343425153</v>
+        <v>659.4174442350916</v>
       </c>
       <c r="C40" t="n">
-        <v>3413.442160497246</v>
+        <v>659.4174442350916</v>
       </c>
       <c r="D40" t="n">
-        <v>3263.32552108491</v>
+        <v>537.1352232072251</v>
       </c>
       <c r="E40" t="n">
-        <v>3115.412427502517</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F40" t="n">
-        <v>2968.522480004607</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G40" t="n">
-        <v>2968.522480004607</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H40" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K40" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L40" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M40" t="n">
-        <v>3856.786138513316</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N40" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O40" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q40" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>4694.043622091449</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T40" t="n">
-        <v>4472.086062610992</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="U40" t="n">
-        <v>4182.980758153019</v>
+        <v>1431.508653375957</v>
       </c>
       <c r="V40" t="n">
-        <v>3928.296269947133</v>
+        <v>1176.82416517007</v>
       </c>
       <c r="W40" t="n">
-        <v>3928.296269947133</v>
+        <v>887.4069951331089</v>
       </c>
       <c r="X40" t="n">
-        <v>3803.170922568683</v>
+        <v>659.4174442350916</v>
       </c>
       <c r="Y40" t="n">
-        <v>3582.378343425153</v>
+        <v>659.4174442350916</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K41" t="n">
-        <v>855.1603485090766</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1704.27021414407</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.675091091658</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N41" t="n">
-        <v>3628.004506520298</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7493,22 +7493,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>414.2446369774771</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="C43" t="n">
-        <v>414.2446369774771</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="D43" t="n">
-        <v>414.2446369774771</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="E43" t="n">
-        <v>414.2446369774771</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="F43" t="n">
-        <v>414.2446369774771</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G43" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H43" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7593,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682885</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.711255224911</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V43" t="n">
-        <v>863.0267670190245</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W43" t="n">
-        <v>863.0267670190245</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X43" t="n">
-        <v>635.0372161210072</v>
+        <v>851.8821363738332</v>
       </c>
       <c r="Y43" t="n">
-        <v>414.2446369774771</v>
+        <v>631.0895572303031</v>
       </c>
     </row>
     <row r="44">
@@ -7633,13 +7633,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7651,16 +7651,16 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K44" t="n">
-        <v>855.1603485090766</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L44" t="n">
-        <v>1704.27021414407</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2665.675091091658</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>3628.004506520298</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O44" t="n">
         <v>4114.52506777933</v>
@@ -7684,13 +7684,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y44" t="n">
         <v>2765.933610202796</v>
@@ -7727,28 +7727,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>216.633837726596</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418659</v>
+        <v>446.4617558748525</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740672</v>
+        <v>801.8162955070538</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.680327106303</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.615543921421</v>
+        <v>1695.790367254408</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439724</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400678</v>
       </c>
       <c r="Q45" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R45" t="n">
         <v>2587.498588679581</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.71766921524075</v>
+        <v>975.7152219901975</v>
       </c>
       <c r="C46" t="n">
-        <v>95.71766921524075</v>
+        <v>806.7790390622906</v>
       </c>
       <c r="D46" t="n">
-        <v>95.71766921524075</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F46" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G46" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S46" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.5510938955</v>
+        <v>1157.363686820437</v>
       </c>
       <c r="V46" t="n">
-        <v>954.866605689613</v>
+        <v>1157.363686820437</v>
       </c>
       <c r="W46" t="n">
-        <v>665.4494356526525</v>
+        <v>1157.363686820437</v>
       </c>
       <c r="X46" t="n">
-        <v>437.4598847546351</v>
+        <v>1157.363686820437</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.667305611105</v>
+        <v>1157.363686820437</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70213529832102</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>4.620730212330557</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880237</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>53.84110201061571</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>260.0527905534074</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.620730212330074</v>
       </c>
       <c r="K17" t="n">
-        <v>316.5995337026463</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.23975550835129</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>3.419393410990438</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>230.5859793988969</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>156.4185551713031</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>373.2543023942267</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>260.0527905534074</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411126</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.49982154847169</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>90.95617538133376</v>
+        <v>288.6541370556716</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R33" t="n">
         <v>3.419393410990438</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R36" t="n">
         <v>3.419393410990438</v>
@@ -10831,16 +10831,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>385.4209114750752</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.620730212329647</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>74.6020979488024</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R39" t="n">
         <v>3.419393410990438</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>260.0527905534074</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R42" t="n">
         <v>3.419393410990438</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0527905534074</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>316.5995337026461</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>32.4998215484714</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>74.6020979488024</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990438</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>97.68290229956054</v>
@@ -23472,13 +23472,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>256.245520969361</v>
+        <v>137.3869148216457</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.4953695297712</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.678308014338569</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.4016096997884</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>60.09184015003171</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.88194257787582</v>
+        <v>151.0132804339143</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>76.9054025450901</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.39928767339308</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956054</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V28" t="n">
-        <v>227.0227602415231</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>140.188987615909</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.96025995876667</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>46.32991036976753</v>
       </c>
       <c r="H34" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.9606021442295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.00138042655544</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>97.68290229956054</v>
@@ -25362,10 +25362,10 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>195.660837486525</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>27.55607420062452</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956054</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>101.8355614843717</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4532772541941</v>
       </c>
       <c r="G43" t="n">
-        <v>93.55962239918381</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60.09184015003166</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>39.25590727957044</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792277.555120294</v>
+        <v>792277.5551202939</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792277.555120294</v>
+        <v>792277.5551202937</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792277.555120294</v>
+        <v>792277.5551202939</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792277.5551202939</v>
+        <v>792277.555120294</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792277.555120294</v>
+        <v>792277.5551202939</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792277.555120294</v>
+        <v>792277.5551202939</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792277.555120294</v>
+        <v>792277.5551202939</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792277.5551202937</v>
+        <v>792277.555120294</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792277.555120294</v>
+        <v>792277.5551202939</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792277.5551202939</v>
+        <v>792277.555120294</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448199</v>
@@ -26325,37 +26325,37 @@
         <v>614589.4181987242</v>
       </c>
       <c r="F2" t="n">
-        <v>614589.4181987239</v>
+        <v>614589.418198724</v>
       </c>
       <c r="G2" t="n">
-        <v>614589.418198724</v>
+        <v>614589.4181987238</v>
       </c>
       <c r="H2" t="n">
         <v>614589.4181987239</v>
       </c>
       <c r="I2" t="n">
+        <v>614589.418198724</v>
+      </c>
+      <c r="J2" t="n">
+        <v>614589.418198724</v>
+      </c>
+      <c r="K2" t="n">
+        <v>614589.418198724</v>
+      </c>
+      <c r="L2" t="n">
+        <v>614589.4181987237</v>
+      </c>
+      <c r="M2" t="n">
+        <v>614589.4181987239</v>
+      </c>
+      <c r="N2" t="n">
+        <v>614589.4181987243</v>
+      </c>
+      <c r="O2" t="n">
+        <v>614589.4181987239</v>
+      </c>
+      <c r="P2" t="n">
         <v>614589.4181987242</v>
-      </c>
-      <c r="J2" t="n">
-        <v>614589.4181987242</v>
-      </c>
-      <c r="K2" t="n">
-        <v>614589.4181987239</v>
-      </c>
-      <c r="L2" t="n">
-        <v>614589.4181987239</v>
-      </c>
-      <c r="M2" t="n">
-        <v>614589.418198724</v>
-      </c>
-      <c r="N2" t="n">
-        <v>614589.4181987237</v>
-      </c>
-      <c r="O2" t="n">
-        <v>614589.418198724</v>
-      </c>
-      <c r="P2" t="n">
-        <v>614589.418198724</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518283</v>
+        <v>708251.0967518284</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694094</v>
+        <v>130130.2399694095</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="F4" t="n">
         <v>19876.24241659315</v>
       </c>
       <c r="G4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="H4" t="n">
         <v>19876.24241659315</v>
@@ -26441,13 +26441,13 @@
         <v>19876.24241659315</v>
       </c>
       <c r="J4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659314</v>
       </c>
       <c r="K4" t="n">
         <v>19876.24241659315</v>
       </c>
       <c r="L4" t="n">
-        <v>19876.24241659316</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="M4" t="n">
         <v>19876.24241659315</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="F5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902621</v>
+        <v>-219868.272490262</v>
       </c>
       <c r="C6" t="n">
-        <v>370099.6067242817</v>
+        <v>370099.6067242821</v>
       </c>
       <c r="D6" t="n">
-        <v>370099.6067242824</v>
+        <v>370099.6067242825</v>
       </c>
       <c r="E6" t="n">
-        <v>-209505.6343617665</v>
+        <v>-210206.2135051891</v>
       </c>
       <c r="F6" t="n">
-        <v>498745.4623900616</v>
+        <v>498044.8832466393</v>
       </c>
       <c r="G6" t="n">
-        <v>498745.4623900617</v>
+        <v>498044.883246639</v>
       </c>
       <c r="H6" t="n">
-        <v>498745.4623900616</v>
+        <v>498044.8832466392</v>
       </c>
       <c r="I6" t="n">
-        <v>498745.4623900618</v>
+        <v>498044.8832466393</v>
       </c>
       <c r="J6" t="n">
-        <v>322322.2431974689</v>
+        <v>321621.6640540464</v>
       </c>
       <c r="K6" t="n">
-        <v>498745.4623900616</v>
+        <v>498044.8832466393</v>
       </c>
       <c r="L6" t="n">
-        <v>498745.4623900616</v>
+        <v>498044.8832466389</v>
       </c>
       <c r="M6" t="n">
-        <v>368615.2224206523</v>
+        <v>367914.6432772296</v>
       </c>
       <c r="N6" t="n">
-        <v>498745.4623900614</v>
+        <v>498044.8832466395</v>
       </c>
       <c r="O6" t="n">
-        <v>498745.4623900617</v>
+        <v>498044.8832466392</v>
       </c>
       <c r="P6" t="n">
-        <v>498745.4623900617</v>
+        <v>498044.8832466394</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170868</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="F4" t="n">
         <v>1196.470865190509</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731071</v>
+        <v>687.4987572731072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359536</v>
+        <v>522.183592435954</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359536</v>
+        <v>522.1835924359541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359536</v>
+        <v>522.183592435954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>279.3323015578576</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>124.0535265542215</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>45.48327928098161</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>85.78503288679238</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>131.0703856053966</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>34.3126073657769</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.46807450747572</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>213.9731176726478</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>61.82274204898287</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856232</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K11" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L11" t="n">
-        <v>530.7276537125099</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M11" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O11" t="n">
         <v>872.235091625404</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004011</v>
+        <v>389.1995606412489</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M14" t="n">
-        <v>971.116037320796</v>
+        <v>575.4436058385792</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O14" t="n">
-        <v>751.487700916066</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R14" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709662</v>
@@ -35743,7 +35743,7 @@
         <v>402.5566389383721</v>
       </c>
       <c r="P15" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106823</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811664</v>
+        <v>187.0366104934965</v>
       </c>
       <c r="K17" t="n">
-        <v>641.2446803365934</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L17" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M17" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O17" t="n">
         <v>872.235091625404</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709662</v>
@@ -35980,7 +35980,7 @@
         <v>402.5566389383721</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q18" t="n">
         <v>152.4976168106823</v>
@@ -36123,25 +36123,25 @@
         <v>351.5124954532402</v>
       </c>
       <c r="K20" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M20" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O20" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q20" t="n">
-        <v>265.3831009854563</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R20" t="n">
         <v>119.1340348585826</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709662</v>
@@ -36220,7 +36220,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K23" t="n">
-        <v>555.231126032844</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L23" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M23" t="n">
         <v>971.116037320796</v>
@@ -36372,16 +36372,16 @@
         <v>972.0499145743844</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626587</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P23" t="n">
         <v>384.5788304289184</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K26" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646393</v>
+        <v>596.444073585492</v>
       </c>
       <c r="M26" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N26" t="n">
-        <v>907.957292556627</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O26" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R26" t="n">
         <v>53.41761498560015</v>
@@ -36834,10 +36834,10 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K29" t="n">
-        <v>584.6979371873546</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646393</v>
+        <v>736.9393422553014</v>
       </c>
       <c r="M29" t="n">
         <v>971.116037320796</v>
@@ -36846,7 +36846,7 @@
         <v>972.0499145743844</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P29" t="n">
         <v>384.5788304289184</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709662</v>
@@ -36931,10 +36931,10 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q30" t="n">
-        <v>184.997438359154</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R30" t="n">
-        <v>42.10227640033038</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L32" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O32" t="n">
-        <v>582.3910857439924</v>
+        <v>780.0890474183303</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R32" t="n">
         <v>53.41761498560015</v>
@@ -37150,7 +37150,7 @@
         <v>89.63772240239248</v>
       </c>
       <c r="K33" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
@@ -37168,7 +37168,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M35" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O35" t="n">
-        <v>751.487700916066</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>402.5566389383721</v>
       </c>
       <c r="P36" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>857.6867329646393</v>
       </c>
       <c r="M38" t="n">
-        <v>907.0234153030386</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N38" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O38" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289184</v>
+        <v>389.199560641248</v>
       </c>
       <c r="Q38" t="n">
         <v>240.143345477105</v>
@@ -37636,13 +37636,13 @@
         <v>464.5810270859781</v>
       </c>
       <c r="O39" t="n">
-        <v>477.1587368871745</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P39" t="n">
         <v>303.5588430275572</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K41" t="n">
-        <v>584.6979371873546</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M41" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O41" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>89.63772240239248</v>
       </c>
       <c r="K42" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
@@ -37879,7 +37879,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K44" t="n">
-        <v>584.6979371873546</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
         <v>857.6867329646393</v>
@@ -38028,10 +38028,10 @@
         <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743844</v>
+        <v>851.3025238650464</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P44" t="n">
         <v>384.5788304289184</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239248</v>
+        <v>122.1375439508639</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709662</v>
@@ -38110,7 +38110,7 @@
         <v>464.5810270859781</v>
       </c>
       <c r="O45" t="n">
-        <v>477.1587368871745</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P45" t="n">
         <v>303.5588430275572</v>
@@ -38119,7 +38119,7 @@
         <v>152.4976168106823</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>42.10227640033038</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
